--- a/2024/BCA/Sem 1_result.xlsx
+++ b/2024/BCA/Sem 1_result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,8 +473,8 @@
     <col width="13" customWidth="1" min="15" max="15"/>
     <col width="11" customWidth="1" min="16" max="16"/>
     <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="11" customWidth="1" min="18" max="18"/>
+    <col width="11" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -6347,8 +6347,16 @@
       <c r="Q69" s="3" t="n">
         <v>73.23</v>
       </c>
-      <c r="R69" s="3" t="inlineStr"/>
-      <c r="S69" s="3" t="inlineStr"/>
+      <c r="R69" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S69" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="70" ht="25" customHeight="1">
       <c r="A70" s="2" t="n">
@@ -8808,8 +8816,16 @@
       <c r="Q98" s="2" t="n">
         <v>65.54000000000001</v>
       </c>
-      <c r="R98" s="2" t="inlineStr"/>
-      <c r="S98" s="2" t="inlineStr"/>
+      <c r="R98" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S98" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="25" customHeight="1">
       <c r="A99" s="3" t="n">
@@ -9654,8 +9670,16 @@
       <c r="Q108" s="2" t="n">
         <v>61.54</v>
       </c>
-      <c r="R108" s="2" t="inlineStr"/>
-      <c r="S108" s="2" t="inlineStr"/>
+      <c r="R108" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S108" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="25" customHeight="1">
       <c r="A109" s="3" t="n">
@@ -10500,8 +10524,16 @@
       <c r="Q118" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="R118" s="2" t="inlineStr"/>
-      <c r="S118" s="2" t="inlineStr"/>
+      <c r="R118" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S118" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="25" customHeight="1">
       <c r="A119" s="3" t="n">
@@ -10836,8 +10868,16 @@
       <c r="Q122" s="2" t="n">
         <v>57.23</v>
       </c>
-      <c r="R122" s="2" t="inlineStr"/>
-      <c r="S122" s="2" t="inlineStr"/>
+      <c r="R122" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S122" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="25" customHeight="1">
       <c r="A123" s="3" t="n">
@@ -10917,8 +10957,16 @@
       <c r="Q123" s="3" t="n">
         <v>57.08</v>
       </c>
-      <c r="R123" s="3" t="inlineStr"/>
-      <c r="S123" s="3" t="inlineStr"/>
+      <c r="R123" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S123" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="25" customHeight="1">
       <c r="A124" s="2" t="n">
@@ -11083,8 +11131,16 @@
       <c r="Q125" s="3" t="n">
         <v>54.62</v>
       </c>
-      <c r="R125" s="3" t="inlineStr"/>
-      <c r="S125" s="3" t="inlineStr"/>
+      <c r="R125" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S125" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="25" customHeight="1">
       <c r="A126" s="2" t="n">
@@ -11164,8 +11220,16 @@
       <c r="Q126" s="2" t="n">
         <v>54.31</v>
       </c>
-      <c r="R126" s="2" t="inlineStr"/>
-      <c r="S126" s="2" t="inlineStr"/>
+      <c r="R126" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S126" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="25" customHeight="1">
       <c r="A127" s="3" t="n">
@@ -11330,8 +11394,16 @@
       <c r="Q128" s="2" t="n">
         <v>52.92</v>
       </c>
-      <c r="R128" s="2" t="inlineStr"/>
-      <c r="S128" s="2" t="inlineStr"/>
+      <c r="R128" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S128" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="25" customHeight="1">
       <c r="A129" s="3" t="n">
@@ -11411,8 +11483,16 @@
       <c r="Q129" s="3" t="n">
         <v>52.46</v>
       </c>
-      <c r="R129" s="3" t="inlineStr"/>
-      <c r="S129" s="3" t="inlineStr"/>
+      <c r="R129" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S129" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="25" customHeight="1">
       <c r="A130" s="2" t="n">
@@ -11492,8 +11572,16 @@
       <c r="Q130" s="2" t="n">
         <v>52.46</v>
       </c>
-      <c r="R130" s="2" t="inlineStr"/>
-      <c r="S130" s="2" t="inlineStr"/>
+      <c r="R130" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S130" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="25" customHeight="1">
       <c r="A131" s="3" t="n">
@@ -11573,8 +11661,16 @@
       <c r="Q131" s="3" t="n">
         <v>49.54</v>
       </c>
-      <c r="R131" s="3" t="inlineStr"/>
-      <c r="S131" s="3" t="inlineStr"/>
+      <c r="R131" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S131" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="25" customHeight="1">
       <c r="A132" s="2" t="n">
@@ -11654,8 +11750,16 @@
       <c r="Q132" s="2" t="n">
         <v>48.46</v>
       </c>
-      <c r="R132" s="2" t="inlineStr"/>
-      <c r="S132" s="2" t="inlineStr"/>
+      <c r="R132" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S132" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="25" customHeight="1">
       <c r="A133" s="3" t="n">
@@ -11735,8 +11839,16 @@
       <c r="Q133" s="3" t="n">
         <v>46.92</v>
       </c>
-      <c r="R133" s="3" t="inlineStr"/>
-      <c r="S133" s="3" t="inlineStr"/>
+      <c r="R133" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S133" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="25" customHeight="1">
       <c r="A134" s="2" t="n">
@@ -11816,8 +11928,16 @@
       <c r="Q134" s="2" t="n">
         <v>45.54</v>
       </c>
-      <c r="R134" s="2" t="inlineStr"/>
-      <c r="S134" s="2" t="inlineStr"/>
+      <c r="R134" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S134" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="25" customHeight="1">
       <c r="A135" s="3" t="n">
@@ -11897,8 +12017,16 @@
       <c r="Q135" s="3" t="n">
         <v>45.08</v>
       </c>
-      <c r="R135" s="3" t="inlineStr"/>
-      <c r="S135" s="3" t="inlineStr"/>
+      <c r="R135" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S135" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="136" ht="25" customHeight="1">
       <c r="A136" s="2" t="n">
@@ -11978,8 +12106,16 @@
       <c r="Q136" s="2" t="n">
         <v>44.62</v>
       </c>
-      <c r="R136" s="2" t="inlineStr"/>
-      <c r="S136" s="2" t="inlineStr"/>
+      <c r="R136" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S136" s="2" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="25" customHeight="1">
       <c r="A137" s="3" t="n">
@@ -12059,8 +12195,16 @@
       <c r="Q137" s="3" t="n">
         <v>42.31</v>
       </c>
-      <c r="R137" s="3" t="inlineStr"/>
-      <c r="S137" s="3" t="inlineStr"/>
+      <c r="R137" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="S137" s="3" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
